--- a/Excel/IOT/player.玩家.xlsx
+++ b/Excel/IOT/player.玩家.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>sheet名</t>
   </si>
@@ -311,6 +311,26 @@
   </si>
   <si>
     <t>skills[2]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回家买血瓶数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回家购买复活石</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebornBuyHpBottleNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebornBuyResurrectStone</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -943,10 +963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -961,9 +981,11 @@
     <col min="9" max="9" width="11.625" customWidth="1"/>
     <col min="10" max="10" width="11.125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="25.625" customWidth="1"/>
+    <col min="13" max="13" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -997,8 +1019,14 @@
       <c r="K1" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="L1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1032,8 +1060,14 @@
       <c r="K2" t="s">
         <v>45</v>
       </c>
+      <c r="L2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1067,8 +1101,14 @@
       <c r="K3" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1102,8 +1142,14 @@
       <c r="K4" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="L4" s="3">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1137,8 +1183,14 @@
       <c r="K5" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="L5" s="3">
+        <v>40</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1172,8 +1224,14 @@
       <c r="K6" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="L6" s="3">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1206,6 +1264,12 @@
       </c>
       <c r="K7" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="L7" s="3">
+        <v>40</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
